--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value401.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value401.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.210527563626873</v>
+        <v>3.289535760879517</v>
       </c>
       <c r="B1">
-        <v>1.424480555513414</v>
+        <v>2.606353998184204</v>
       </c>
       <c r="C1">
-        <v>1.856300291148291</v>
+        <v>2.063186168670654</v>
       </c>
       <c r="D1">
-        <v>3.607171155246318</v>
+        <v>1.943684458732605</v>
       </c>
       <c r="E1">
-        <v>1.46236822606564</v>
+        <v>1.71659529209137</v>
       </c>
     </row>
   </sheetData>
